--- a/CommunicationPatch/CommunicationPatch/Doc/外部存储器规划.xlsx
+++ b/CommunicationPatch/CommunicationPatch/Doc/外部存储器规划.xlsx
@@ -93,73 +93,73 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>数据包条数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据包1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据包2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据包n</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放内容</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数类</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它参数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16*256</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17*256</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*4096</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>65535*256</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>64815*256</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>64816*256</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>1、总共65536页，每一页256Byte，每一个最小擦除的扇区是4096Byte(即16页)；
 2、每个传感器数据包大约206Byte，则每个传感器数据包放一个页；
-3、假如每30s放存一次传感器数据包，则每天可以存2*60*24 = 2880条，则可以存65535/2880=22.75，先存20天的空间，剩下的空间用于存放其它预留参数等。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据包条数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据包1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据包2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据包n</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>传感器数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>传感器数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>存放内容</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数类</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它参数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>16*256</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17*256</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1*4096</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>57616*256</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>57617*256</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>65535*256</t>
+3、假如每60s放存一次传感器数据包，则每天可以存60*24 = 1440条，则可以存65520/1440=45.5，先存45天的空间即45 * 24 * 60 = 64800，剩下的空间用于存放其它预留参数等。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -552,148 +552,19 @@
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,6 +584,135 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:J9"/>
+      <selection activeCell="A12" sqref="A12:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1106,274 +1106,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="37" t="s">
+      <c r="J3" s="26"/>
+      <c r="K3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="19">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="46">
         <v>0</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19">
+      <c r="J4" s="46"/>
+      <c r="K4" s="46">
         <v>0</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12">
         <v>15</v>
       </c>
-      <c r="L5" s="41"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43" t="s">
+      <c r="A6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="45"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16">
+        <v>16</v>
+      </c>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="23">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4">
+        <v>17</v>
+      </c>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="A8" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
+      <c r="A9" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23">
-        <v>57616</v>
-      </c>
-      <c r="L9" s="24"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>64815</v>
+      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="21" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21">
-        <v>57617</v>
-      </c>
-      <c r="L10" s="22"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
+        <v>64816</v>
+      </c>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36">
         <v>65535</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="37"/>
     </row>
     <row r="12" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51"/>
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="A12:L13"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:H5"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="A10:C11"/>
     <mergeCell ref="D10:H11"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K9:L9"/>
@@ -1381,7 +1382,6 @@
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A8:L8"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CommunicationPatch/CommunicationPatch/Doc/外部存储器规划.xlsx
+++ b/CommunicationPatch/CommunicationPatch/Doc/外部存储器规划.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personer\MyRepository\CommunicationPatch\CommunicationPatch\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -93,10 +98,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>数据包条数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>数据包1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -126,10 +127,6 @@
   </si>
   <si>
     <t>参数类</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它参数</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -160,6 +157,14 @@
     <t>1、总共65536页，每一页256Byte，每一个最小擦除的扇区是4096Byte(即16页)；
 2、每个传感器数据包大约206Byte，则每个传感器数据包放一个页；
 3、假如每60s放存一次传感器数据包，则每天可以存60*24 = 1440条，则可以存65520/1440=45.5，先存45天的空间即45 * 24 * 60 = 64800，剩下的空间用于存放其它预留参数等。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据包条数及其他预留参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它数据及参数等</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -552,6 +557,84 @@
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -585,78 +668,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -685,12 +696,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,7 +1102,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:L13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1106,144 +1111,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="25" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="27"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="46">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="25">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25">
         <v>0</v>
       </c>
-      <c r="L4" s="47"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11">
         <v>15</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15">
         <v>16</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16">
-        <v>16</v>
-      </c>
-      <c r="L6" s="17"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3" t="s">
+      <c r="A7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30">
         <v>17</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4">
-        <v>17</v>
-      </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
@@ -1259,41 +1264,41 @@
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
       <c r="D9" s="50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
-      <c r="I9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
+      <c r="I9" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30">
         <v>64815</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="A10" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" s="48"/>
       <c r="K10" s="48">
@@ -1302,70 +1307,55 @@
       <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38">
         <v>65535</v>
       </c>
-      <c r="L11" s="37"/>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
+      <c r="A12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -1382,6 +1372,21 @@
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A8:L8"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
